--- a/GrocceryApplication/src/test/resources/TestDataa.xlsx
+++ b/GrocceryApplication/src/test/resources/TestDataa.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumi\eclipse-workspace\GrocceryApplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumi\git\SeleniumAutomation\GrocceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD272C9-F903-43ED-BA93-947A82E8C6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FAA8D-5292-4165-ADF4-B040ABAC710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F2D7DBBA-EA55-4466-BD91-C7E19C328E13}"/>
+    <workbookView xWindow="3135" yWindow="2445" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{F2D7DBBA-EA55-4466-BD91-C7E19C328E13}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -37,6 +38,15 @@
   </si>
   <si>
     <t>admin8900</t>
+  </si>
+  <si>
+    <t>Hammu</t>
+  </si>
+  <si>
+    <t>hammu123</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
@@ -390,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E593F4D6-8565-4315-B04D-D2A4F19C47DA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -435,4 +445,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB85305-5875-45EE-9037-43ABB015D7F4}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GrocceryApplication/src/test/resources/TestDataa.xlsx
+++ b/GrocceryApplication/src/test/resources/TestDataa.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumi\git\SeleniumAutomation\GrocceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FAA8D-5292-4165-ADF4-B040ABAC710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB85DEA-28A5-446D-BD3C-6DDA28479D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2445" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{F2D7DBBA-EA55-4466-BD91-C7E19C328E13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{F2D7DBBA-EA55-4466-BD91-C7E19C328E13}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>Staff</t>
+  </si>
+  <si>
+    <t>New page Manage</t>
   </si>
 </sst>
 </file>
@@ -451,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB85305-5875-45EE-9037-43ABB015D7F4}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -474,4 +478,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A76A79-DC16-4DE9-AE65-80D613130D20}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>